--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H2">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I2">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J2">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.11506266666667</v>
+        <v>8.308763666666666</v>
       </c>
       <c r="N2">
-        <v>54.345188</v>
+        <v>24.926291</v>
       </c>
       <c r="O2">
-        <v>0.5475965948184534</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="P2">
-        <v>0.5475965948184532</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="Q2">
-        <v>11.55565282025467</v>
+        <v>9.112822113805221</v>
       </c>
       <c r="R2">
-        <v>104.000875382292</v>
+        <v>82.01539902424699</v>
       </c>
       <c r="S2">
-        <v>0.06730034037238258</v>
+        <v>0.07805912667957843</v>
       </c>
       <c r="T2">
-        <v>0.06730034037238256</v>
+        <v>0.07805912667957843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H3">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I3">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J3">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.621912666666667</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N3">
         <v>25.865738</v>
       </c>
       <c r="O3">
-        <v>0.2606300681353108</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="P3">
-        <v>0.2606300681353107</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="Q3">
-        <v>5.499943955804667</v>
+        <v>9.456275273216219</v>
       </c>
       <c r="R3">
-        <v>49.499495602242</v>
+        <v>85.10647745894599</v>
       </c>
       <c r="S3">
-        <v>0.03203177752155113</v>
+        <v>0.08100109716294275</v>
       </c>
       <c r="T3">
-        <v>0.03203177752155112</v>
+        <v>0.08100109716294275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H4">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I4">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J4">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.178315666666667</v>
+        <v>5.000319666666667</v>
       </c>
       <c r="N4">
-        <v>9.534947000000001</v>
+        <v>15.000959</v>
       </c>
       <c r="O4">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="P4">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="Q4">
-        <v>2.027457098713667</v>
+        <v>5.484212268222556</v>
       </c>
       <c r="R4">
-        <v>18.247113888423</v>
+        <v>49.357910414003</v>
       </c>
       <c r="S4">
-        <v>0.01180794845226459</v>
+        <v>0.04697697539101034</v>
       </c>
       <c r="T4">
-        <v>0.01180794845226459</v>
+        <v>0.04697697539101034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H5">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I5">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J5">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.165745</v>
+        <v>3.893790666666666</v>
       </c>
       <c r="N5">
-        <v>9.497235</v>
+        <v>11.681372</v>
       </c>
       <c r="O5">
-        <v>0.09569667044284828</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="P5">
-        <v>0.09569667044284827</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="Q5">
-        <v>2.019438232735</v>
+        <v>4.270601874991555</v>
       </c>
       <c r="R5">
-        <v>18.174944094615</v>
+        <v>38.43541687492399</v>
       </c>
       <c r="S5">
-        <v>0.01176124642528617</v>
+        <v>0.03658136289668128</v>
       </c>
       <c r="T5">
-        <v>0.01176124642528617</v>
+        <v>0.03658136289668128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.510843</v>
       </c>
       <c r="I6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.11506266666667</v>
+        <v>8.308763666666666</v>
       </c>
       <c r="N6">
-        <v>54.345188</v>
+        <v>24.926291</v>
       </c>
       <c r="O6">
-        <v>0.5475965948184534</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="P6">
-        <v>0.5475965948184532</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="Q6">
-        <v>3.084650985942667</v>
+        <v>1.414824585923667</v>
       </c>
       <c r="R6">
-        <v>27.761858873484</v>
+        <v>12.733421273313</v>
       </c>
       <c r="S6">
-        <v>0.01796506562745383</v>
+        <v>0.01211918439784856</v>
       </c>
       <c r="T6">
-        <v>0.01796506562745382</v>
+        <v>0.01211918439784856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.510843</v>
       </c>
       <c r="I7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.621912666666667</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N7">
         <v>25.865738</v>
       </c>
       <c r="O7">
-        <v>0.2606300681353108</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="P7">
-        <v>0.2606300681353107</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="Q7">
-        <v>1.468147910792667</v>
+        <v>1.468147910792666</v>
       </c>
       <c r="R7">
         <v>13.213331197134</v>
       </c>
       <c r="S7">
-        <v>0.008550521173512663</v>
+        <v>0.01257594434761428</v>
       </c>
       <c r="T7">
-        <v>0.008550521173512661</v>
+        <v>0.01257594434761428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.510843</v>
       </c>
       <c r="I8">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J8">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.178315666666667</v>
+        <v>5.000319666666667</v>
       </c>
       <c r="N8">
-        <v>9.534947000000001</v>
+        <v>15.000959</v>
       </c>
       <c r="O8">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="P8">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="Q8">
-        <v>0.5412067700356668</v>
+        <v>0.8514594331596668</v>
       </c>
       <c r="R8">
-        <v>4.870860930321001</v>
+        <v>7.663134898437002</v>
       </c>
       <c r="S8">
-        <v>0.003151998454937611</v>
+        <v>0.007293479333349917</v>
       </c>
       <c r="T8">
-        <v>0.003151998454937611</v>
+        <v>0.007293479333349917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.510843</v>
       </c>
       <c r="I9">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J9">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.165745</v>
+        <v>3.893790666666666</v>
       </c>
       <c r="N9">
-        <v>9.497235</v>
+        <v>11.681372</v>
       </c>
       <c r="O9">
-        <v>0.09569667044284828</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="P9">
-        <v>0.09569667044284827</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="Q9">
-        <v>0.5390662243450001</v>
+        <v>0.6630385685106667</v>
       </c>
       <c r="R9">
-        <v>4.851596019105</v>
+        <v>5.967347116596001</v>
       </c>
       <c r="S9">
-        <v>0.003139531876388971</v>
+        <v>0.005679493242210206</v>
       </c>
       <c r="T9">
-        <v>0.003139531876388971</v>
+        <v>0.005679493242210206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H10">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.11506266666667</v>
+        <v>8.308763666666666</v>
       </c>
       <c r="N10">
-        <v>54.345188</v>
+        <v>24.926291</v>
       </c>
       <c r="O10">
-        <v>0.5475965948184534</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="P10">
-        <v>0.5475965948184532</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="Q10">
-        <v>17.66325488869733</v>
+        <v>4.169899834274777</v>
       </c>
       <c r="R10">
-        <v>158.969293998276</v>
+        <v>37.529098508473</v>
       </c>
       <c r="S10">
-        <v>0.1028711302238036</v>
+        <v>0.03571876366506734</v>
       </c>
       <c r="T10">
-        <v>0.1028711302238036</v>
+        <v>0.03571876366506733</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H11">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I11">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J11">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.621912666666667</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N11">
         <v>25.865738</v>
       </c>
       <c r="O11">
-        <v>0.2606300681353108</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="P11">
-        <v>0.2606300681353107</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="Q11">
-        <v>8.406873542847334</v>
+        <v>4.327059192223778</v>
       </c>
       <c r="R11">
-        <v>75.66186188562601</v>
+        <v>38.943532730014</v>
       </c>
       <c r="S11">
-        <v>0.04896179036371693</v>
+        <v>0.03706496817535154</v>
       </c>
       <c r="T11">
-        <v>0.04896179036371693</v>
+        <v>0.03706496817535152</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H12">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I12">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J12">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.178315666666667</v>
+        <v>5.000319666666667</v>
       </c>
       <c r="N12">
-        <v>9.534947000000001</v>
+        <v>15.000959</v>
       </c>
       <c r="O12">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="P12">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="Q12">
-        <v>3.099045295624333</v>
+        <v>2.509498763697445</v>
       </c>
       <c r="R12">
-        <v>27.891407660619</v>
+        <v>22.585488873277</v>
       </c>
       <c r="S12">
-        <v>0.01804889835902427</v>
+        <v>0.02149600633605557</v>
       </c>
       <c r="T12">
-        <v>0.01804889835902427</v>
+        <v>0.02149600633605556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H13">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I13">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J13">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.165745</v>
+        <v>3.893790666666666</v>
       </c>
       <c r="N13">
-        <v>9.497235</v>
+        <v>11.681372</v>
       </c>
       <c r="O13">
-        <v>0.09569667044284828</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="P13">
-        <v>0.09569667044284827</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="Q13">
-        <v>3.086788153955</v>
+        <v>1.954167636368445</v>
       </c>
       <c r="R13">
-        <v>27.781093385595</v>
+        <v>17.587508727316</v>
       </c>
       <c r="S13">
-        <v>0.01797751253434002</v>
+        <v>0.01673911958067628</v>
       </c>
       <c r="T13">
-        <v>0.01797751253434002</v>
+        <v>0.01673911958067628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H14">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I14">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J14">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.11506266666667</v>
+        <v>8.308763666666666</v>
       </c>
       <c r="N14">
-        <v>54.345188</v>
+        <v>24.926291</v>
       </c>
       <c r="O14">
-        <v>0.5475965948184534</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="P14">
-        <v>0.5475965948184532</v>
+        <v>0.3217360040147476</v>
       </c>
       <c r="Q14">
-        <v>61.72027684981245</v>
+        <v>22.86273753409822</v>
       </c>
       <c r="R14">
-        <v>555.482491648312</v>
+        <v>205.764637806884</v>
       </c>
       <c r="S14">
-        <v>0.3594600585948133</v>
+        <v>0.1958389292722532</v>
       </c>
       <c r="T14">
-        <v>0.3594600585948133</v>
+        <v>0.1958389292722532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H15">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I15">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J15">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.621912666666667</v>
+        <v>8.621912666666665</v>
       </c>
       <c r="N15">
         <v>25.865738</v>
       </c>
       <c r="O15">
-        <v>0.2606300681353108</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="P15">
-        <v>0.2606300681353107</v>
+        <v>0.3338619125088609</v>
       </c>
       <c r="Q15">
-        <v>29.37593132044578</v>
+        <v>23.72441126599022</v>
       </c>
       <c r="R15">
-        <v>264.383381884012</v>
+        <v>213.519701393912</v>
       </c>
       <c r="S15">
-        <v>0.17108597907653</v>
+        <v>0.2032199028229524</v>
       </c>
       <c r="T15">
-        <v>0.17108597907653</v>
+        <v>0.2032199028229524</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H16">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I16">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J16">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.178315666666667</v>
+        <v>5.000319666666667</v>
       </c>
       <c r="N16">
-        <v>9.534947000000001</v>
+        <v>15.000959</v>
       </c>
       <c r="O16">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="P16">
-        <v>0.09607666660338772</v>
+        <v>0.1936248198758919</v>
       </c>
       <c r="Q16">
-        <v>10.82891770635311</v>
+        <v>13.75908627467956</v>
       </c>
       <c r="R16">
-        <v>97.46025935717802</v>
+        <v>123.831776472116</v>
       </c>
       <c r="S16">
-        <v>0.06306782133716124</v>
+        <v>0.117858358815476</v>
       </c>
       <c r="T16">
-        <v>0.06306782133716125</v>
+        <v>0.117858358815476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H17">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I17">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J17">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.165745</v>
+        <v>3.893790666666666</v>
       </c>
       <c r="N17">
-        <v>9.497235</v>
+        <v>11.681372</v>
       </c>
       <c r="O17">
-        <v>0.09569667044284828</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="P17">
-        <v>0.09569667044284827</v>
+        <v>0.1507772636004996</v>
       </c>
       <c r="Q17">
-        <v>10.78608787787667</v>
+        <v>10.71431534174756</v>
       </c>
       <c r="R17">
-        <v>97.07479090089001</v>
+        <v>96.42883807572801</v>
       </c>
       <c r="S17">
-        <v>0.06281837960683311</v>
+        <v>0.0917772878809318</v>
       </c>
       <c r="T17">
-        <v>0.06281837960683312</v>
+        <v>0.0917772878809318</v>
       </c>
     </row>
   </sheetData>
